--- a/src/2023/day21/Computation.xlsx
+++ b/src/2023/day21/Computation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\github.com\gies74\advent-of-code\src\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\github.com\gies74\advent-of-code\src\2023\day21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A9D1FD-E62F-4730-8E21-33D62D5E1145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23E409A-5662-4EC9-B820-B4CD96D77551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="35295" windowHeight="21840" xr2:uid="{7722AC43-ED09-42FB-A33C-0D98C24E027E}"/>
   </bookViews>
@@ -36,25 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
-  <si>
-    <t>RO</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>inf</t>
-  </si>
-  <si>
-    <t>LO</t>
-  </si>
-  <si>
-    <t>LB</t>
-  </si>
-  <si>
-    <t>RB</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>MB</t>
   </si>
@@ -68,21 +50,6 @@
     <t>MR</t>
   </si>
   <si>
-    <t>no_full</t>
-  </si>
-  <si>
-    <t>full_plots</t>
-  </si>
-  <si>
-    <t>ang small</t>
-  </si>
-  <si>
-    <t>ang big</t>
-  </si>
-  <si>
-    <t>too low</t>
-  </si>
-  <si>
     <t>remainder=1</t>
   </si>
   <si>
@@ -101,20 +68,83 @@
     <t>odd reachable</t>
   </si>
   <si>
-    <t>diamond points</t>
-  </si>
-  <si>
-    <t>gridsize</t>
-  </si>
-  <si>
     <t>Elf steps</t>
+  </si>
+  <si>
+    <t>no of plots per grid</t>
+  </si>
+  <si>
+    <t>no grids crossed going straight</t>
+  </si>
+  <si>
+    <t>no grids where all plots were visited</t>
+  </si>
+  <si>
+    <t>DAY 21 PART 2 ANSWER</t>
+  </si>
+  <si>
+    <t>RO small</t>
+  </si>
+  <si>
+    <t>LO small</t>
+  </si>
+  <si>
+    <t>LB small</t>
+  </si>
+  <si>
+    <t>RB small</t>
+  </si>
+  <si>
+    <t>RB large</t>
+  </si>
+  <si>
+    <t>LB large</t>
+  </si>
+  <si>
+    <t>LO large</t>
+  </si>
+  <si>
+    <t>RO large</t>
+  </si>
+  <si>
+    <t>no of plots visited</t>
+  </si>
+  <si>
+    <t>no steps after entered corner/edge</t>
+  </si>
+  <si>
+    <t>Rock research</t>
+  </si>
+  <si>
+    <t>Gridsize</t>
+  </si>
+  <si>
+    <t>steps to grid edge going straight</t>
+  </si>
+  <si>
+    <t>diamond points (mid edge enter)</t>
+  </si>
+  <si>
+    <t>diamond edge small (corner enter)</t>
+  </si>
+  <si>
+    <t>diamond edge large (corner enter)</t>
+  </si>
+  <si>
+    <t>full squares</t>
+  </si>
+  <si>
+    <t>Diamond edges</t>
+  </si>
+  <si>
+    <t>Diamond points</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,8 +160,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,8 +188,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -153,20 +203,143 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -182,16 +355,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1453568</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>577268</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1733550</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -221,7 +394,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5606468" y="4543424"/>
+          <a:off x="8606843" y="4171949"/>
           <a:ext cx="5975932" cy="5667375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -541,172 +714,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665FE6B6-5771-4C21-A290-678719111C46}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="18.140625" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="23.7109375" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" customWidth="1"/>
     <col min="12" max="12" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B1">
+        <v>26501365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2">
-        <v>26501365</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <f>(B2-1)/2</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <f>(B2-(B1-1)/2)/B1</f>
+        <f>(B1-B3)/B2</f>
         <v>202300</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5">
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D5" s="4">
         <f>POWER(B4-1,2)</f>
         <v>40924885401</v>
       </c>
-      <c r="D5">
+      <c r="E5" s="4">
         <v>7496</v>
       </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C6">
+      <c r="F5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D6">
         <f>POWER(B4,2)</f>
         <v>40925290000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>7570</v>
       </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E8" s="1">
-        <f>C5*D5+C6*D6</f>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <f>D5*E5+D6*E6</f>
         <v>616577386265896</v>
       </c>
-      <c r="F8">
-        <f>SUM(C23:C26)</f>
+      <c r="B9">
+        <f>SUM(C21:C24)</f>
         <v>22586</v>
       </c>
-      <c r="G8">
-        <f>SUM(D11,D14,D17,D20)</f>
+      <c r="C9">
+        <f>SUM(D12,D14,D16,D18)</f>
         <v>779461900</v>
       </c>
-      <c r="H8">
-        <f>SUM(D12,D15,D18,D21)</f>
+      <c r="D9">
+        <f>SUM(D13,D15,D17,D19)</f>
         <v>5317429215</v>
       </c>
-      <c r="I8" s="2">
-        <f>SUM(E8:H8)</f>
+      <c r="E9" s="3">
+        <f>SUM(A9:D9)</f>
         <v>616583483179597</v>
       </c>
-      <c r="L8" s="1">
-        <v>309813627296195</v>
-      </c>
-      <c r="M8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G9">
-        <f>SUM(D11,D14,D17,D20)</f>
-        <v>779461900</v>
-      </c>
-      <c r="L9" s="1">
-        <v>619611946952195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
         <v>64</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>965</v>
       </c>
-      <c r="D11">
-        <f>B$4*C11</f>
+      <c r="D12">
+        <f>B$4*C12</f>
         <v>195219500</v>
       </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12">
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4">
         <f>131+64</f>
         <v>195</v>
       </c>
-      <c r="C12">
+      <c r="C13" s="4">
         <v>6582</v>
       </c>
-      <c r="D12">
-        <f>(B$4-1)*C12</f>
+      <c r="D13" s="4">
+        <f>(B$4-1)*C13</f>
         <v>1331532018</v>
       </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1008</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="9">
+        <f>(131*131+1)/2</f>
+        <v>8581</v>
+      </c>
+      <c r="J13" s="10">
+        <f>I13-G13</f>
+        <v>7573</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>64</v>
@@ -719,183 +931,186 @@
         <v>198254000</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <f>B12</f>
+        <v>5</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="12">
+        <v>1081</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="12">
+        <f>(131*131-1)/2</f>
+        <v>8580</v>
+      </c>
+      <c r="J14" s="13">
+        <f>I14-G14</f>
+        <v>7499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4">
+        <f>B13</f>
         <v>195</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>6584</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <f>(B$4-1)*C15</f>
         <v>1331936616</v>
       </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="E15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B17">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
         <v>64</v>
       </c>
-      <c r="C17">
+      <c r="C16">
         <v>963</v>
       </c>
-      <c r="D17">
-        <f>B$4*C17</f>
+      <c r="D16">
+        <f>B$4*C16</f>
         <v>194814900</v>
       </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="4">
+        <f>B13</f>
+        <v>195</v>
+      </c>
+      <c r="C17" s="4">
+        <v>6549</v>
+      </c>
+      <c r="D17" s="4">
+        <f>(B$4-1)*C17</f>
+        <v>1324856151</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>64</v>
+      </c>
+      <c r="C18">
+        <v>945</v>
+      </c>
+      <c r="D18">
+        <f>B$4*C18</f>
+        <v>191173500</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4">
+        <f>B13</f>
+        <v>195</v>
+      </c>
+      <c r="C19" s="4">
+        <v>6570</v>
+      </c>
+      <c r="D19" s="4">
+        <f>(B$4-1)*C19</f>
+        <v>1329104430</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B18">
-        <f>B12</f>
-        <v>195</v>
-      </c>
-      <c r="C18">
-        <v>6549</v>
-      </c>
-      <c r="D18">
-        <f>(B$4-1)*C18</f>
-        <v>1324856151</v>
-      </c>
-      <c r="E18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18">
-        <v>1008</v>
-      </c>
-      <c r="K18" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18">
-        <f>(131*131+1)/2</f>
-        <v>8581</v>
-      </c>
-      <c r="M18">
-        <f>L18-J18</f>
-        <v>7573</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19">
-        <v>1081</v>
-      </c>
-      <c r="K19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19">
-        <f>(131*131-1)/2</f>
-        <v>8580</v>
-      </c>
-      <c r="M19">
-        <f>L19-J19</f>
-        <v>7499</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20">
-        <v>64</v>
-      </c>
-      <c r="C20">
-        <v>945</v>
-      </c>
-      <c r="D20">
-        <f>B$4*C20</f>
-        <v>191173500</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21">
-        <f>B12</f>
-        <v>195</v>
-      </c>
-      <c r="C21">
-        <v>6570</v>
-      </c>
-      <c r="D21">
-        <f>(B$4-1)*C21</f>
-        <v>1329104430</v>
-      </c>
-      <c r="E21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4">
         <v>130</v>
       </c>
-      <c r="C23">
+      <c r="C21" s="4">
         <v>5623</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4">
         <v>130</v>
       </c>
-      <c r="C24">
+      <c r="C22" s="4">
         <v>5670</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4">
         <v>130</v>
       </c>
-      <c r="C25">
+      <c r="C23" s="4">
         <v>5637</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="4">
         <v>130</v>
       </c>
-      <c r="C26">
+      <c r="C24" s="4">
         <v>5656</v>
       </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
